--- a/data/record_collection.xlsx
+++ b/data/record_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stew_\Documents\GitHub\Stew-Record-Collection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5187F0E7-7545-4DF5-8039-984A8D9D3251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC2B08-563C-4BB2-BA8B-38D32563218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15480" xr2:uid="{556DBB4B-9506-4FAD-9959-0EDD792462A4}"/>
   </bookViews>

--- a/data/record_collection.xlsx
+++ b/data/record_collection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stew_\Documents\GitHub\Stew-Record-Collection\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stew_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC2B08-563C-4BB2-BA8B-38D32563218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF568D3-F856-4781-A68D-48212C0CCCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15480" xr2:uid="{556DBB4B-9506-4FAD-9959-0EDD792462A4}"/>
   </bookViews>
